--- a/Assets/ExcelDatas/ModifyListData.xlsx
+++ b/Assets/ExcelDatas/ModifyListData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E422CE-BFB3-4EF2-A9A7-06A3085311FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9ECF9F-FAAA-44D0-99C1-6049B5DDD703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{107A21A1-0646-4343-B991-39F58D2DD10E}"/>
+    <workbookView xWindow="14895" yWindow="2295" windowWidth="20595" windowHeight="13260" xr2:uid="{107A21A1-0646-4343-B991-39F58D2DD10E}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 수정 내용" sheetId="9" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="195">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1279,12 +1279,44 @@
     <t xml:space="preserve">                         스킬 인첸트 테이블에 업글 가능한 스킬 리스트 칼럼 추가 ( 태훈님 작업 예정 )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1) 치명타피해량 업그레이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 소환수 최대체력 업그레이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 소환 빈도 업그레이드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description 컬럼과 EnchantEffect1 컬럼 사이에 다음과 같은 DESIGN 컬럼 추가 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자값 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1 * 100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEnchantTable에 다음 데이터 추가 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,8 +1512,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1494,13 +1534,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1509,7 +1592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,9 +1627,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1600,143 +1680,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="76">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF92D050"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF92D050"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1998,75 +1961,59 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF92D050"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2130,6 +2077,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
@@ -2160,6 +2123,38 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2200,38 +2195,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2284,38 +2247,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2400,86 +2331,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2490,7 +2341,119 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF7030A0"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2542,6 +2505,38 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF7030A0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
@@ -2572,102 +2567,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2710,6 +2609,54 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
@@ -2731,6 +2678,154 @@
         <family val="3"/>
         <charset val="129"/>
         <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF92D050"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2939,114 +3034,114 @@
     <tableColumn id="5" xr3:uid="{8FAB34E5-EC2A-4DCE-8B72-E4AFBCC71706}" name="MoveSpeed" dataDxfId="68"/>
     <tableColumn id="6" xr3:uid="{5569F248-1B3D-41B7-8D25-10467A4DE5B7}" name="CriticalPercent" dataDxfId="67"/>
     <tableColumn id="7" xr3:uid="{1F29868B-E97F-403C-B216-91873BB5595D}" name="CriticalDamage" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{6F304A76-4612-4B62-9C32-241657D84899}" name="HP" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{EF678D7F-BF3C-4B97-B5DD-A4A75E59C346}" name="HPRegen" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E349DE61-B526-4965-8041-7DFED520E411}" name="MaxLV" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{7846A915-8055-4F27-938D-06CD01F169A3}" name="Prefab" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{6F304A76-4612-4B62-9C32-241657D84899}" name="HP" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{EF678D7F-BF3C-4B97-B5DD-A4A75E59C346}" name="HPRegen" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{E349DE61-B526-4965-8041-7DFED520E411}" name="MaxLV" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{7846A915-8055-4F27-938D-06CD01F169A3}" name="Prefab" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2F36C019-0A18-4DCB-8815-6A60B8F3C5A2}" name="표2_28" displayName="표2_28" ref="A3:F33" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2F36C019-0A18-4DCB-8815-6A60B8F3C5A2}" name="표2_28" displayName="표2_28" ref="A3:F33" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A3:F33" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6D30D3B3-1B53-489B-B440-02B0006CBC0C}" name="Index" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{27E98AC4-ECC0-4C75-9074-ED47BB267B4F}" name="UpgradeStat" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CC393B21-34A4-48BC-8D2C-AE28B277BD33}" name="AddStat" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0023BB24-603C-4983-A9AB-D5544719B118}" name="Level" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{16B6C141-6B59-4C7D-9D27-9B3048D5C6E0}" name="Gold" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{C910DFBC-5A8F-4916-B844-06C12EF1DA60}" name="Icon" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{6D30D3B3-1B53-489B-B440-02B0006CBC0C}" name="Index" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{27E98AC4-ECC0-4C75-9074-ED47BB267B4F}" name="UpgradeStat" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{CC393B21-34A4-48BC-8D2C-AE28B277BD33}" name="AddStat" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{0023BB24-603C-4983-A9AB-D5544719B118}" name="Level" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{16B6C141-6B59-4C7D-9D27-9B3048D5C6E0}" name="Gold" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{C910DFBC-5A8F-4916-B844-06C12EF1DA60}" name="Icon" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45633B0E-68A5-41F3-ADCE-9BF06EE33BB4}" name="표2_5" displayName="표2_5" ref="A3:L14" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45633B0E-68A5-41F3-ADCE-9BF06EE33BB4}" name="표2_5" displayName="표2_5" ref="A3:L14" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A3:L14" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EBF4DAC4-E485-4D9D-A04C-1FF5740A0436}" name="Index" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{3DCD96C4-F49F-4FB2-A153-4268C7CE215F}" name="Name" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{1A91ACDD-5769-43DD-A526-69DCDEFFE4D7}" name="Description" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{85868E17-561D-4FDC-8021-2445C43309C1}" name="Icon" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{DCBCB87D-0104-4011-84E4-3DECF45CC730}" name="SkillDamageRate" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{34515784-2CC4-41C2-ADF9-282A7CCD658B}" name="SkillSpeedRate" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{205703F0-EBB5-475E-AF64-48E2FC1B2E73}" name="SkillCriticalDamageRate" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{3D93A399-6EAC-4CA8-8B87-689AEA4BC262}" name="Range" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{10567052-36A5-4B34-9088-CE12772C1A5E}" name="ProjectileSpeed" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{57904C78-EFFF-4561-8ED8-4D334793EB22}" name="ProjectileSize" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{9717247C-7C31-43F4-AE72-E8F31EF4AEAD}" name="Prefab" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{76E62E8E-4E81-4534-8557-784FBE893352}" name="Type" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{EBF4DAC4-E485-4D9D-A04C-1FF5740A0436}" name="Index" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{3DCD96C4-F49F-4FB2-A153-4268C7CE215F}" name="Name" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{1A91ACDD-5769-43DD-A526-69DCDEFFE4D7}" name="Description" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{85868E17-561D-4FDC-8021-2445C43309C1}" name="Icon" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{DCBCB87D-0104-4011-84E4-3DECF45CC730}" name="SkillDamageRate" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{34515784-2CC4-41C2-ADF9-282A7CCD658B}" name="SkillSpeedRate" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{205703F0-EBB5-475E-AF64-48E2FC1B2E73}" name="SkillCriticalDamageRate" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{3D93A399-6EAC-4CA8-8B87-689AEA4BC262}" name="Range" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{10567052-36A5-4B34-9088-CE12772C1A5E}" name="ProjectileSpeed" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{57904C78-EFFF-4561-8ED8-4D334793EB22}" name="ProjectileSize" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{9717247C-7C31-43F4-AE72-E8F31EF4AEAD}" name="Prefab" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{76E62E8E-4E81-4534-8557-784FBE893352}" name="Type" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21C8AAD-32FA-44FF-B57C-A03E41D67B98}" name="표2_26" displayName="표2_26" ref="A3:F5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21C8AAD-32FA-44FF-B57C-A03E41D67B98}" name="표2_26" displayName="표2_26" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A3:F5" xr:uid="{A9AD76AC-4971-4773-A3C9-A82E41376BA3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F1E30E9A-278B-4DFE-9842-F64DAA643741}" name="Index" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{E4DE5F62-3744-49C4-95EE-200C26CF209C}" name="Name" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{1677F77C-A170-4BC0-AFFA-BC3EB0BA3CCC}" name="SkillId" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{2BBBC51A-BD83-4949-8C9B-4B7C7B47E324}" name="MaxHp" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{FF5376AE-6519-401A-94D5-6CCEC847089E}" name="MoveSpeed" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{0DBEB1CC-7DD1-4505-98A5-1F54AD6AC1C3}" name="PamiliarSkillId" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{F1E30E9A-278B-4DFE-9842-F64DAA643741}" name="Index" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E4DE5F62-3744-49C4-95EE-200C26CF209C}" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{1677F77C-A170-4BC0-AFFA-BC3EB0BA3CCC}" name="SkillId" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{2BBBC51A-BD83-4949-8C9B-4B7C7B47E324}" name="MaxHp" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{FF5376AE-6519-401A-94D5-6CCEC847089E}" name="MoveSpeed" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{0DBEB1CC-7DD1-4505-98A5-1F54AD6AC1C3}" name="PamiliarSkillId" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{011331C0-1DA8-4957-A206-75FBFDCC6DE4}" name="표2_7" displayName="표2_7" ref="A3:H9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{011331C0-1DA8-4957-A206-75FBFDCC6DE4}" name="표2_7" displayName="표2_7" ref="A3:H9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:H9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{57F875E7-DE9D-4E4B-9973-A6704730C3AE}" name="Index" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{CB0E740E-3CCC-4E49-AD3C-2FF3F358206B}" name="Name" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{0D368FD5-B60D-4B67-8D18-242DFC41A5A6}" name="Description" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{67ED2EAF-396C-4FD9-AFD9-E8E2101178D4}" name="EnchantEffect1" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{A210907B-D61A-4975-AB85-DFFEFD9FB446}" name="EnchantEffectValue1" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{1DDF5DF9-4B24-4388-B459-36C2C3ABF06F}" name="MaxCnt" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{53CABA02-08D0-4736-8FFB-3B418A862A7B}" name="Icon" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{5654E583-0AC5-4497-BB14-4E998BE44C4C}" name="ColortoBlack" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{57F875E7-DE9D-4E4B-9973-A6704730C3AE}" name="Index" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{CB0E740E-3CCC-4E49-AD3C-2FF3F358206B}" name="Name" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{0D368FD5-B60D-4B67-8D18-242DFC41A5A6}" name="Description" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{67ED2EAF-396C-4FD9-AFD9-E8E2101178D4}" name="EnchantEffect1" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{A210907B-D61A-4975-AB85-DFFEFD9FB446}" name="EnchantEffectValue1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{1DDF5DF9-4B24-4388-B459-36C2C3ABF06F}" name="MaxCnt" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{53CABA02-08D0-4736-8FFB-3B418A862A7B}" name="Icon" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{5654E583-0AC5-4497-BB14-4E998BE44C4C}" name="ColortoBlack" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{682159B4-DE01-4A2B-B554-2A17596983E1}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{682159B4-DE01-4A2B-B554-2A17596983E1}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A3:G10" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{09C0269C-1EFF-4C67-BC33-8DCC9B96CF9C}" name="Index" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{509519D6-D0A0-4B19-B9FE-2F90BD75F34C}" name="Name" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{5A32E3E9-139C-4A75-AF97-4877342E162A}" name="SelectStatName" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{10F9E119-F4F4-4F2D-8BF7-D8DE39627B62}" name="SelectStatRateValue" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{6E042010-652D-4200-8A4C-A9B90EB34371}" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{46431663-C6C2-4913-993A-C4A1957495E0}" name="Icon" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{2B25E974-9DF6-46FE-92FF-D42BD378913D}" name="MaxCount" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{09C0269C-1EFF-4C67-BC33-8DCC9B96CF9C}" name="Index" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{509519D6-D0A0-4B19-B9FE-2F90BD75F34C}" name="Name" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5A32E3E9-139C-4A75-AF97-4877342E162A}" name="SelectStatName" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{10F9E119-F4F4-4F2D-8BF7-D8DE39627B62}" name="SelectStatRateValue" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6E042010-652D-4200-8A4C-A9B90EB34371}" name="Description" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{46431663-C6C2-4913-993A-C4A1957495E0}" name="Icon" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{2B25E974-9DF6-46FE-92FF-D42BD378913D}" name="MaxCount" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E7FC12D-5CBA-4898-BE15-EA9E2EC314EE}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E7FC12D-5CBA-4898-BE15-EA9E2EC314EE}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FC42F1F3-78A0-42F0-9383-677B9B37D2CF}" name="ID" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{613BEC66-0EB8-4B17-8365-5932C1FB4999}" name="Name" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{3D2A5B08-D92D-4017-9418-D0C9281371B5}" name="MonsterType" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{852E66DD-26D6-4EC8-9BA9-6132C572EB2C}" name="MaxHP" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{FC73F6E6-8903-452C-A256-4F7E0B4FAF31}" name="Attack" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{E6C3B210-BEB4-4DCE-9B69-DE4D058C5771}" name="Defence" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7CF5A94E-AD47-41DA-8C57-145FB06C75F3}" name="EXP" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{61634163-60EC-4035-9131-1C16759FEBB7}" name="Gold" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DBD0900E-9A4C-4201-B61C-11C81328CC81}" name="Score" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{F7AEEB59-CB34-4DA5-8224-661A12DD2BF1}" name="Skill" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{16C3100D-9FFC-483B-A9C4-075CE4B3543A}" name="PrefabPath" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{FC42F1F3-78A0-42F0-9383-677B9B37D2CF}" name="ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{613BEC66-0EB8-4B17-8365-5932C1FB4999}" name="Name" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3D2A5B08-D92D-4017-9418-D0C9281371B5}" name="MonsterType" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{852E66DD-26D6-4EC8-9BA9-6132C572EB2C}" name="MaxHP" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FC73F6E6-8903-452C-A256-4F7E0B4FAF31}" name="Attack" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E6C3B210-BEB4-4DCE-9B69-DE4D058C5771}" name="Defence" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7CF5A94E-AD47-41DA-8C57-145FB06C75F3}" name="EXP" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{61634163-60EC-4035-9131-1C16759FEBB7}" name="Gold" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{DBD0900E-9A4C-4201-B61C-11C81328CC81}" name="Score" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F7AEEB59-CB34-4DA5-8224-661A12DD2BF1}" name="Skill" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{16C3100D-9FFC-483B-A9C4-075CE4B3543A}" name="PrefabPath" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3349,100 +3444,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADA991F-5F88-4B06-90B8-4ACF55270694}">
-  <dimension ref="C3:C22"/>
+  <dimension ref="C3:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="29" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="29"/>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="25" t="s">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="26" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3460,23 +3606,23 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3650,7 @@
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -3514,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3688,7 @@
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3552,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3726,7 @@
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>176</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -3590,41 +3736,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>50</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>4</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>1.5</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>1000</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>30</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3646,18 +3792,18 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="4"/>
+    <col min="4" max="4" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3677,14 +3823,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3697,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3717,14 +3863,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>12001</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
       <c r="D4" s="3">
@@ -3737,14 +3883,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>12002</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>20</v>
       </c>
       <c r="D5" s="3">
@@ -3757,14 +3903,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>12003</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>20</v>
       </c>
       <c r="D6" s="3">
@@ -3777,14 +3923,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>12004</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>20</v>
       </c>
       <c r="D7" s="3">
@@ -3797,14 +3943,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>12005</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>20</v>
       </c>
       <c r="D8" s="3">
@@ -3817,14 +3963,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12006</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.05</v>
       </c>
       <c r="D9" s="3">
@@ -3837,14 +3983,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>12007</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>0.05</v>
       </c>
       <c r="D10" s="3">
@@ -3857,14 +4003,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>12008</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>0.05</v>
       </c>
       <c r="D11" s="3">
@@ -3877,14 +4023,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12009</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0.05</v>
       </c>
       <c r="D12" s="3">
@@ -3897,14 +4043,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12010</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.05</v>
       </c>
       <c r="D13" s="3">
@@ -3917,14 +4063,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12011</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>0.05</v>
       </c>
       <c r="D14" s="3">
@@ -3937,14 +4083,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12012</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>0.05</v>
       </c>
       <c r="D15" s="3">
@@ -3957,14 +4103,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12013</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.05</v>
       </c>
       <c r="D16" s="3">
@@ -3977,14 +4123,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>12014</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>0.05</v>
       </c>
       <c r="D17" s="3">
@@ -3997,14 +4143,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12015</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.05</v>
       </c>
       <c r="D18" s="3">
@@ -4017,14 +4163,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12016</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>10</v>
       </c>
       <c r="D19" s="3">
@@ -4037,14 +4183,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12017</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>10</v>
       </c>
       <c r="D20" s="3">
@@ -4057,14 +4203,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>12018</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>10</v>
       </c>
       <c r="D21" s="3">
@@ -4077,14 +4223,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>12019</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>10</v>
       </c>
       <c r="D22" s="3">
@@ -4097,14 +4243,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>12020</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>10</v>
       </c>
       <c r="D23" s="3">
@@ -4117,14 +4263,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>12021</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>0.05</v>
       </c>
       <c r="D24" s="3">
@@ -4137,14 +4283,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>12022</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>0.05</v>
       </c>
       <c r="D25" s="3">
@@ -4157,14 +4303,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>12023</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>0.05</v>
       </c>
       <c r="D26" s="3">
@@ -4177,14 +4323,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>12024</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>0.05</v>
       </c>
       <c r="D27" s="3">
@@ -4197,14 +4343,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>12025</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>0.05</v>
       </c>
       <c r="D28" s="3">
@@ -4217,14 +4363,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>12026</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>20</v>
       </c>
       <c r="D29" s="3">
@@ -4237,14 +4383,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12027</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>20</v>
       </c>
       <c r="D30" s="3">
@@ -4257,14 +4403,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>12028</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>20</v>
       </c>
       <c r="D31" s="3">
@@ -4277,14 +4423,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>12029</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>20</v>
       </c>
       <c r="D32" s="3">
@@ -4297,14 +4443,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>12030</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>20</v>
       </c>
       <c r="D33" s="3">
@@ -4317,7 +4463,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34" s="5"/>
     </row>
   </sheetData>
@@ -4338,23 +4484,23 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.59765625" style="4"/>
+    <col min="12" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4519,7 @@
       <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -4392,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4411,10 +4557,10 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -4430,7 +4576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4449,7 +4595,7 @@
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>143</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -4468,7 +4614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -4487,7 +4633,7 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>1.5</v>
       </c>
       <c r="H4" s="3">
@@ -4506,7 +4652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
@@ -4525,7 +4671,7 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>2</v>
       </c>
       <c r="H5" s="3">
@@ -4544,7 +4690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10003</v>
       </c>
@@ -4563,7 +4709,7 @@
       <c r="F6" s="3">
         <v>0.5</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1.5</v>
       </c>
       <c r="H6" s="3">
@@ -4582,7 +4728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10004</v>
       </c>
@@ -4601,7 +4747,7 @@
       <c r="F7" s="3">
         <v>0.5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>1.5</v>
       </c>
       <c r="H7" s="3">
@@ -4620,7 +4766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10005</v>
       </c>
@@ -4639,7 +4785,7 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>1.5</v>
       </c>
       <c r="H8" s="3">
@@ -4658,7 +4804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10006</v>
       </c>
@@ -4677,7 +4823,7 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>1.5</v>
       </c>
       <c r="H9" s="3">
@@ -4696,7 +4842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10500</v>
       </c>
@@ -4715,7 +4861,7 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="3">
@@ -4734,7 +4880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10501</v>
       </c>
@@ -4753,7 +4899,7 @@
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="3">
@@ -4772,7 +4918,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10502</v>
       </c>
@@ -4791,7 +4937,7 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="3">
@@ -4810,7 +4956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10503</v>
       </c>
@@ -4829,7 +4975,7 @@
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -4848,7 +4994,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10504</v>
       </c>
@@ -4867,7 +5013,7 @@
       <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="3">
@@ -4904,17 +5050,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4944,7 +5090,7 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -4954,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4974,7 +5120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>11001</v>
       </c>
@@ -4994,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>11002</v>
       </c>
@@ -5029,23 +5175,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="4"/>
+    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5071,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5097,7 +5243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5123,20 +5269,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>14000</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.2</v>
       </c>
       <c r="F4" s="3">
@@ -5149,20 +5295,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>14001</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.2</v>
       </c>
       <c r="F5" s="3">
@@ -5175,20 +5321,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>14002</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.2</v>
       </c>
       <c r="F6" s="3">
@@ -5201,20 +5347,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>14003</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.2</v>
       </c>
       <c r="F7" s="3">
@@ -5227,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>14004</v>
       </c>
@@ -5253,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>14005</v>
       </c>
@@ -5279,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="3"/>
     </row>
   </sheetData>
@@ -5300,19 +5446,19 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="4"/>
+    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,7 +5504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5381,7 +5527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>16000</v>
       </c>
@@ -5391,7 +5537,7 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0.5</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -5404,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>16001</v>
       </c>
@@ -5414,7 +5560,7 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -5427,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>16002</v>
       </c>
@@ -5437,7 +5583,7 @@
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -5450,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>16003</v>
       </c>
@@ -5460,7 +5606,7 @@
       <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5473,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>16004</v>
       </c>
@@ -5483,7 +5629,7 @@
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.5</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -5496,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>16005</v>
       </c>
@@ -5506,10 +5652,10 @@
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>1E-3</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -5519,7 +5665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>16006</v>
       </c>
@@ -5529,10 +5675,10 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0.7</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>141</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -5561,331 +5707,331 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="11.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="20"/>
-    <col min="5" max="5" width="14.09765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20"/>
-    <col min="8" max="10" width="9" style="20"/>
-    <col min="11" max="11" width="47.69921875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="11.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="19"/>
+    <col min="5" max="5" width="14.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19"/>
+    <col min="8" max="10" width="9" style="19"/>
+    <col min="11" max="11" width="47.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>1010</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>200</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>100</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>10</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>10</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>10</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>10</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="20">
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>1011</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>200</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>100</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>10</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>10</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>10</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>10</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>0</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="20">
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>1012</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>200</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>100</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>10</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>10</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>10</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>10</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>1013</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>100</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>0</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>0</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>1014</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>100</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>0</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
+    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>1015</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>1000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>200</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>50</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>100</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>100</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>10008</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>173</v>
       </c>
     </row>
